--- a/ETL/Adhoc/output/sales_performance.xlsx
+++ b/ETL/Adhoc/output/sales_performance.xlsx
@@ -630,7 +630,7 @@
         <v>28783100</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="3">
@@ -714,7 +714,7 @@
         <v>3388000</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="4">
@@ -798,7 +798,7 @@
         <v>2075100</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="5">
@@ -882,7 +882,7 @@
         <v>2889000</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="6">
@@ -966,7 +966,7 @@
         <v>1417400</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="7">
@@ -1050,7 +1050,7 @@
         <v>1593600</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="8">
@@ -1134,7 +1134,7 @@
         <v>1228700</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="9">
@@ -1218,7 +1218,7 @@
         <v>2562300</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>1942000</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="11">
@@ -1386,7 +1386,7 @@
         <v>455500</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="12">
@@ -1470,7 +1470,7 @@
         <v>531500</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="13">
@@ -1554,7 +1554,7 @@
         <v>550400</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="14">
@@ -1638,7 +1638,7 @@
         <v>500700</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="15">
@@ -1722,7 +1722,7 @@
         <v>371899.9999999999</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="16">
@@ -1806,7 +1806,7 @@
         <v>319600</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="17">
@@ -1890,7 +1890,7 @@
         <v>128100</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="18">
@@ -1974,7 +1974,7 @@
         <v>165700</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="19">
@@ -2058,7 +2058,7 @@
         <v>216200</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="20">
@@ -2142,7 +2142,7 @@
         <v>210900</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="21">
@@ -2226,7 +2226,7 @@
         <v>137300</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="22">
@@ -2310,7 +2310,7 @@
         <v>276400</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="23">
@@ -2394,7 +2394,7 @@
         <v>76199.99999999999</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>458300</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="25">
@@ -2562,7 +2562,7 @@
         <v>242900</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="26">
@@ -2646,7 +2646,7 @@
         <v>195600</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="27">
@@ -2730,7 +2730,7 @@
         <v>243900</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="28">
@@ -2814,7 +2814,7 @@
         <v>110100</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="29">
@@ -2898,7 +2898,7 @@
         <v>571199.9999999999</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="30">
@@ -2982,7 +2982,7 @@
         <v>263399.9999999999</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="31">
@@ -3066,7 +3066,7 @@
         <v>185700</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="32">
@@ -3150,7 +3150,7 @@
         <v>254400</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="33">
@@ -3234,7 +3234,7 @@
         <v>433300</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="34">
@@ -3318,7 +3318,7 @@
         <v>424700</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="35">
@@ -3402,7 +3402,7 @@
         <v>683800</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="36">
@@ -3486,7 +3486,7 @@
         <v>369299.9999999999</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="37">
@@ -3570,7 +3570,7 @@
         <v>86200</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="38">
@@ -3654,7 +3654,7 @@
         <v>212800</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="39">
@@ -3738,7 +3738,7 @@
         <v>125200</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="40">
@@ -3822,7 +3822,7 @@
         <v>303800</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="41">
@@ -3906,7 +3906,7 @@
         <v>97800</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="42">
@@ -3990,7 +3990,7 @@
         <v>245600</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="43">
@@ -4074,7 +4074,7 @@
         <v>444100</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="44">
@@ -4158,7 +4158,7 @@
         <v>108100</v>
       </c>
       <c r="V44" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="45">
@@ -4242,7 +4242,7 @@
         <v>97500</v>
       </c>
       <c r="V45" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="46">
@@ -4326,7 +4326,7 @@
         <v>173100</v>
       </c>
       <c r="V46" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="47">
@@ -4410,7 +4410,7 @@
         <v>265100</v>
       </c>
       <c r="V47" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="48">
@@ -4494,7 +4494,7 @@
         <v>607600</v>
       </c>
       <c r="V48" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="49">
@@ -4578,7 +4578,7 @@
         <v>257200</v>
       </c>
       <c r="V49" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="50">
@@ -4662,7 +4662,7 @@
         <v>86500</v>
       </c>
       <c r="V50" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="51">
@@ -4746,7 +4746,7 @@
         <v>135900</v>
       </c>
       <c r="V51" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="52">
@@ -4830,7 +4830,7 @@
         <v>438300</v>
       </c>
       <c r="V52" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="53">
@@ -4914,7 +4914,7 @@
         <v>40000</v>
       </c>
       <c r="V53" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="54">
@@ -4998,7 +4998,7 @@
         <v>81500</v>
       </c>
       <c r="V54" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="55">
@@ -5082,7 +5082,7 @@
         <v>84400.00000000001</v>
       </c>
       <c r="V55" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="56">
@@ -5166,7 +5166,7 @@
         <v>212500</v>
       </c>
       <c r="V56" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="57">
@@ -5250,7 +5250,7 @@
         <v>224900</v>
       </c>
       <c r="V57" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="58">
@@ -5334,7 +5334,7 @@
         <v>189000</v>
       </c>
       <c r="V58" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="59">
@@ -5418,7 +5418,7 @@
         <v>109400</v>
       </c>
       <c r="V59" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="60">
@@ -5502,7 +5502,7 @@
         <v>52800</v>
       </c>
       <c r="V60" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="61">
@@ -5586,7 +5586,7 @@
         <v>248900</v>
       </c>
       <c r="V61" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="62">
@@ -5670,7 +5670,7 @@
         <v>149600</v>
       </c>
       <c r="V62" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="63">
@@ -5754,7 +5754,7 @@
         <v>292400</v>
       </c>
       <c r="V63" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="64">
@@ -5838,7 +5838,7 @@
         <v>176200</v>
       </c>
       <c r="V64" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="65">
@@ -5922,7 +5922,7 @@
         <v>564300</v>
       </c>
       <c r="V65" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="66">
@@ -6006,7 +6006,7 @@
         <v>428199.9999999999</v>
       </c>
       <c r="V66" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="67">
@@ -6090,7 +6090,7 @@
         <v>238200</v>
       </c>
       <c r="V67" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="68">
@@ -6174,7 +6174,7 @@
         <v>218600</v>
       </c>
       <c r="V68" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="69">
@@ -6258,7 +6258,7 @@
         <v>168000</v>
       </c>
       <c r="V69" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="70">
@@ -6342,7 +6342,7 @@
         <v>349900.0000000001</v>
       </c>
       <c r="V70" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="71">
@@ -6426,7 +6426,7 @@
         <v>258100</v>
       </c>
       <c r="V71" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="72">
@@ -6510,7 +6510,7 @@
         <v>101500</v>
       </c>
       <c r="V72" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="73">
@@ -6594,7 +6594,7 @@
         <v>378000</v>
       </c>
       <c r="V73" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="74">
@@ -6678,7 +6678,7 @@
         <v>181800</v>
       </c>
       <c r="V74" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="75">
@@ -6762,7 +6762,7 @@
         <v>286099.9999999999</v>
       </c>
       <c r="V75" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="76">
@@ -6846,7 +6846,7 @@
         <v>257976473.4399025</v>
       </c>
       <c r="V76" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="77">
@@ -6930,7 +6930,7 @@
         <v>20089529.00264801</v>
       </c>
       <c r="V77" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="78">
@@ -7014,7 +7014,7 @@
         <v>27227918.42949548</v>
       </c>
       <c r="V78" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="79">
@@ -7098,7 +7098,7 @@
         <v>41290564.80016296</v>
       </c>
       <c r="V79" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="80">
@@ -7182,7 +7182,7 @@
         <v>30111743.33641307</v>
       </c>
       <c r="V80" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="81">
@@ -7266,7 +7266,7 @@
         <v>7081189.333333337</v>
       </c>
       <c r="V81" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="82">
@@ -7350,7 +7350,7 @@
         <v>8319225.929943613</v>
       </c>
       <c r="V82" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="83">
@@ -7434,7 +7434,7 @@
         <v>32241410.11882843</v>
       </c>
       <c r="V83" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="84">
@@ -7518,7 +7518,7 @@
         <v>47963546.26967504</v>
       </c>
       <c r="V84" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="85">
@@ -7602,7 +7602,7 @@
         <v>18273497.3059207</v>
       </c>
       <c r="V85" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="86">
@@ -7686,7 +7686,7 @@
         <v>3662566.729440521</v>
       </c>
       <c r="V86" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="87">
@@ -7770,7 +7770,7 @@
         <v>1937234</v>
       </c>
       <c r="V87" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="88">
@@ -7854,7 +7854,7 @@
         <v>1917795</v>
       </c>
       <c r="V88" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="89">
@@ -7938,7 +7938,7 @@
         <v>3263275.50859107</v>
       </c>
       <c r="V89" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="90">
@@ -8022,7 +8022,7 @@
         <v>888039</v>
       </c>
       <c r="V90" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="91">
@@ -8106,7 +8106,7 @@
         <v>2010988.07278613</v>
       </c>
       <c r="V91" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="92">
@@ -8190,7 +8190,7 @@
         <v>846480.753435243</v>
       </c>
       <c r="V92" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="93">
@@ -8274,7 +8274,7 @@
         <v>2928551.806455051</v>
       </c>
       <c r="V93" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="94">
@@ -8358,7 +8358,7 @@
         <v>2718228.49559269</v>
       </c>
       <c r="V94" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="95">
@@ -8442,7 +8442,7 @@
         <v>4300481.38375115</v>
       </c>
       <c r="V95" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="96">
@@ -8526,7 +8526,7 @@
         <v>2366102.06405694</v>
       </c>
       <c r="V96" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="97">
@@ -8610,7 +8610,7 @@
         <v>6084755.43108975</v>
       </c>
       <c r="V97" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="98">
@@ -8694,7 +8694,7 @@
         <v>1139378.1202274</v>
       </c>
       <c r="V98" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="99">
@@ -8778,7 +8778,7 @@
         <v>2376532.98860147</v>
       </c>
       <c r="V99" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="100">
@@ -8862,7 +8862,7 @@
         <v>1562517.06679691</v>
       </c>
       <c r="V100" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="101">
@@ -8946,7 +8946,7 @@
         <v>3260004.31075968</v>
       </c>
       <c r="V101" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="102">
@@ -9030,7 +9030,7 @@
         <v>1508276</v>
       </c>
       <c r="V102" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="103">
@@ -9114,7 +9114,7 @@
         <v>4661580.000000001</v>
       </c>
       <c r="V103" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="104">
@@ -9198,7 +9198,7 @@
         <v>2025010.11903301</v>
       </c>
       <c r="V104" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="105">
@@ -9282,7 +9282,7 @@
         <v>1157380.648791261</v>
       </c>
       <c r="V105" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="106">
@@ -9366,7 +9366,7 @@
         <v>829165</v>
       </c>
       <c r="V106" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="107">
@@ -9450,7 +9450,7 @@
         <v>2718062.43</v>
       </c>
       <c r="V107" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="108">
@@ -9534,7 +9534,7 @@
         <v>3120538.57648017</v>
       </c>
       <c r="V108" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="109">
@@ -9618,7 +9618,7 @@
         <v>5453071.15296035</v>
       </c>
       <c r="V109" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="110">
@@ -9702,7 +9702,7 @@
         <v>3076841</v>
       </c>
       <c r="V110" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="111">
@@ -9786,7 +9786,7 @@
         <v>2328699.576480175</v>
       </c>
       <c r="V111" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="112">
@@ -9870,7 +9870,7 @@
         <v>1946870.3059207</v>
       </c>
       <c r="V112" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="113">
@@ -9954,7 +9954,7 @@
         <v>3428480.15296035</v>
       </c>
       <c r="V113" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="114">
@@ -10038,7 +10038,7 @@
         <v>1507096</v>
       </c>
       <c r="V114" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="115">
@@ -10122,7 +10122,7 @@
         <v>843134.4493530201</v>
       </c>
       <c r="V115" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="116">
@@ -10206,7 +10206,7 @@
         <v>2019223.145471139</v>
       </c>
       <c r="V116" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="117">
@@ -10290,7 +10290,7 @@
         <v>3130111.797412081</v>
       </c>
       <c r="V117" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="118">
@@ -10374,7 +10374,7 @@
         <v>674240</v>
       </c>
       <c r="V118" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="119">
@@ -10458,7 +10458,7 @@
         <v>536223.044177177</v>
       </c>
       <c r="V119" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="120">
@@ -10542,7 +10542,7 @@
         <v>1507270.66666667</v>
       </c>
       <c r="V120" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="121">
@@ -10626,7 +10626,7 @@
         <v>1060987.666666667</v>
       </c>
       <c r="V121" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="122">
@@ -10710,7 +10710,7 @@
         <v>1787805</v>
       </c>
       <c r="V122" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="123">
@@ -10794,7 +10794,7 @@
         <v>934316.696118118</v>
       </c>
       <c r="V123" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="124">
@@ -10878,7 +10878,7 @@
         <v>856216.7974120791</v>
       </c>
       <c r="V124" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="125">
@@ -10962,7 +10962,7 @@
         <v>543790</v>
       </c>
       <c r="V125" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="126">
@@ -11046,7 +11046,7 @@
         <v>2692122.26157763</v>
       </c>
       <c r="V126" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="127">
@@ -11130,7 +11130,7 @@
         <v>1473273.567192882</v>
       </c>
       <c r="V127" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="128">
@@ -11214,7 +11214,7 @@
         <v>1007975.356778266</v>
       </c>
       <c r="V128" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="129">
@@ -11298,7 +11298,7 @@
         <v>592202.236718178</v>
       </c>
       <c r="V129" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="130">
@@ -11382,7 +11382,7 @@
         <v>5469221.074372663</v>
       </c>
       <c r="V130" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="131">
@@ -11466,7 +11466,7 @@
         <v>750382.6487912603</v>
       </c>
       <c r="V131" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="132">
@@ -11550,7 +11550,7 @@
         <v>789012.178549513</v>
       </c>
       <c r="V132" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="133">
@@ -11634,7 +11634,7 @@
         <v>1516445.01831484</v>
       </c>
       <c r="V133" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="134">
@@ -11718,7 +11718,7 @@
         <v>15156192.1336675</v>
       </c>
       <c r="V134" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="135">
@@ -11802,7 +11802,7 @@
         <v>1179196.773645446</v>
       </c>
       <c r="V135" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="136">
@@ -11886,7 +11886,7 @@
         <v>1025114.914145664</v>
       </c>
       <c r="V136" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="137">
@@ -11970,7 +11970,7 @@
         <v>4138440.25594142</v>
       </c>
       <c r="V137" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="138">
@@ -12054,7 +12054,7 @@
         <v>4825477.065406786</v>
       </c>
       <c r="V138" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="139">
@@ -12138,7 +12138,7 @@
         <v>2935237.17854951</v>
       </c>
       <c r="V139" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="140">
@@ -12222,7 +12222,7 @@
         <v>13621990.2559414</v>
       </c>
       <c r="V140" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="141">
@@ -12306,7 +12306,7 @@
         <v>1998479.767824269</v>
       </c>
       <c r="V141" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="142">
@@ -12390,7 +12390,7 @@
         <v>1855150.48865823</v>
       </c>
       <c r="V142" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="143">
@@ -12474,7 +12474,7 @@
         <v>2717138.28467039</v>
       </c>
       <c r="V143" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="144">
@@ -12558,7 +12558,7 @@
         <v>16145294.5139045</v>
       </c>
       <c r="V144" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="145">
@@ -12642,7 +12642,7 @@
         <v>5002116.055436299</v>
       </c>
       <c r="V145" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="146">
@@ -12726,7 +12726,7 @@
         <v>2503320.92444287</v>
       </c>
       <c r="V146" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="147">
@@ -12810,7 +12810,7 @@
         <v>14084542.1801138</v>
       </c>
       <c r="V147" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="148">
@@ -12894,7 +12894,7 @@
         <v>2253439.898006082</v>
       </c>
       <c r="V148" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="149">
@@ -12978,7 +12978,7 @@
         <v>3402543.924442871</v>
       </c>
       <c r="V149" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="150">
@@ -13058,7 +13058,7 @@
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
       <c r="V150" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="151">
@@ -13138,7 +13138,7 @@
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr"/>
       <c r="V151" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="152">
@@ -13218,7 +13218,7 @@
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr"/>
       <c r="V152" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="153">
@@ -13298,7 +13298,7 @@
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
       <c r="V153" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="154">
@@ -13378,7 +13378,7 @@
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr"/>
       <c r="V154" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="155">
@@ -13458,7 +13458,7 @@
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr"/>
       <c r="V155" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="156">
@@ -13538,7 +13538,7 @@
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr"/>
       <c r="V156" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="157">
@@ -13618,7 +13618,7 @@
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="inlineStr"/>
       <c r="V157" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="158">
@@ -13698,7 +13698,7 @@
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr"/>
       <c r="V158" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="159">
@@ -13778,7 +13778,7 @@
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr"/>
       <c r="V159" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="160">
@@ -13858,7 +13858,7 @@
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr"/>
       <c r="V160" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="161">
@@ -13938,7 +13938,7 @@
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr"/>
       <c r="V161" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="162">
@@ -14018,7 +14018,7 @@
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr"/>
       <c r="V162" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="163">
@@ -14098,7 +14098,7 @@
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="inlineStr"/>
       <c r="V163" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="164">
@@ -14178,7 +14178,7 @@
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="inlineStr"/>
       <c r="V164" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="165">
@@ -14258,7 +14258,7 @@
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr"/>
       <c r="V165" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="166">
@@ -14338,7 +14338,7 @@
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="inlineStr"/>
       <c r="V166" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="167">
@@ -14418,7 +14418,7 @@
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="inlineStr"/>
       <c r="V167" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="168">
@@ -14498,7 +14498,7 @@
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr"/>
       <c r="V168" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="169">
@@ -14578,7 +14578,7 @@
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr"/>
       <c r="V169" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="170">
@@ -14658,7 +14658,7 @@
       <c r="T170" t="inlineStr"/>
       <c r="U170" t="inlineStr"/>
       <c r="V170" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="171">
@@ -14738,7 +14738,7 @@
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="inlineStr"/>
       <c r="V171" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="172">
@@ -14818,7 +14818,7 @@
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="inlineStr"/>
       <c r="V172" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="173">
@@ -14898,7 +14898,7 @@
       <c r="T173" t="inlineStr"/>
       <c r="U173" t="inlineStr"/>
       <c r="V173" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="174">
@@ -14978,7 +14978,7 @@
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="inlineStr"/>
       <c r="V174" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="175">
@@ -15058,7 +15058,7 @@
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="inlineStr"/>
       <c r="V175" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="176">
@@ -15138,7 +15138,7 @@
       <c r="T176" t="inlineStr"/>
       <c r="U176" t="inlineStr"/>
       <c r="V176" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="177">
@@ -15218,7 +15218,7 @@
       <c r="T177" t="inlineStr"/>
       <c r="U177" t="inlineStr"/>
       <c r="V177" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="178">
@@ -15298,7 +15298,7 @@
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="inlineStr"/>
       <c r="V178" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="179">
@@ -15378,7 +15378,7 @@
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="inlineStr"/>
       <c r="V179" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="180">
@@ -15458,7 +15458,7 @@
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="inlineStr"/>
       <c r="V180" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="181">
@@ -15538,7 +15538,7 @@
       <c r="T181" t="inlineStr"/>
       <c r="U181" t="inlineStr"/>
       <c r="V181" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="182">
@@ -15618,7 +15618,7 @@
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="inlineStr"/>
       <c r="V182" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="183">
@@ -15698,7 +15698,7 @@
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="inlineStr"/>
       <c r="V183" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="184">
@@ -15778,7 +15778,7 @@
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="inlineStr"/>
       <c r="V184" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="185">
@@ -15858,7 +15858,7 @@
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="inlineStr"/>
       <c r="V185" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="186">
@@ -15938,7 +15938,7 @@
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="inlineStr"/>
       <c r="V186" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="187">
@@ -16018,7 +16018,7 @@
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="inlineStr"/>
       <c r="V187" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="188">
@@ -16098,7 +16098,7 @@
       <c r="T188" t="inlineStr"/>
       <c r="U188" t="inlineStr"/>
       <c r="V188" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="189">
@@ -16178,7 +16178,7 @@
       <c r="T189" t="inlineStr"/>
       <c r="U189" t="inlineStr"/>
       <c r="V189" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="190">
@@ -16258,7 +16258,7 @@
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="inlineStr"/>
       <c r="V190" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="191">
@@ -16338,7 +16338,7 @@
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="inlineStr"/>
       <c r="V191" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="192">
@@ -16418,7 +16418,7 @@
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr"/>
       <c r="V192" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="193">
@@ -16498,7 +16498,7 @@
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
       <c r="V193" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="194">
@@ -16578,7 +16578,7 @@
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="inlineStr"/>
       <c r="V194" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="195">
@@ -16658,7 +16658,7 @@
       <c r="T195" t="inlineStr"/>
       <c r="U195" t="inlineStr"/>
       <c r="V195" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="196">
@@ -16738,7 +16738,7 @@
       <c r="T196" t="inlineStr"/>
       <c r="U196" t="inlineStr"/>
       <c r="V196" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="197">
@@ -16818,7 +16818,7 @@
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="inlineStr"/>
       <c r="V197" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="198">
@@ -16898,7 +16898,7 @@
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
       <c r="V198" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="199">
@@ -16978,7 +16978,7 @@
       <c r="T199" t="inlineStr"/>
       <c r="U199" t="inlineStr"/>
       <c r="V199" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="200">
@@ -17058,7 +17058,7 @@
       <c r="T200" t="inlineStr"/>
       <c r="U200" t="inlineStr"/>
       <c r="V200" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="201">
@@ -17138,7 +17138,7 @@
       <c r="T201" t="inlineStr"/>
       <c r="U201" t="inlineStr"/>
       <c r="V201" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="202">
@@ -17218,7 +17218,7 @@
       <c r="T202" t="inlineStr"/>
       <c r="U202" t="inlineStr"/>
       <c r="V202" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="203">
@@ -17298,7 +17298,7 @@
       <c r="T203" t="inlineStr"/>
       <c r="U203" t="inlineStr"/>
       <c r="V203" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="204">
@@ -17378,7 +17378,7 @@
       <c r="T204" t="inlineStr"/>
       <c r="U204" t="inlineStr"/>
       <c r="V204" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="205">
@@ -17458,7 +17458,7 @@
       <c r="T205" t="inlineStr"/>
       <c r="U205" t="inlineStr"/>
       <c r="V205" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="206">
@@ -17538,7 +17538,7 @@
       <c r="T206" t="inlineStr"/>
       <c r="U206" t="inlineStr"/>
       <c r="V206" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="207">
@@ -17618,7 +17618,7 @@
       <c r="T207" t="inlineStr"/>
       <c r="U207" t="inlineStr"/>
       <c r="V207" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="208">
@@ -17698,7 +17698,7 @@
       <c r="T208" t="inlineStr"/>
       <c r="U208" t="inlineStr"/>
       <c r="V208" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="209">
@@ -17778,7 +17778,7 @@
       <c r="T209" t="inlineStr"/>
       <c r="U209" t="inlineStr"/>
       <c r="V209" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="210">
@@ -17858,7 +17858,7 @@
       <c r="T210" t="inlineStr"/>
       <c r="U210" t="inlineStr"/>
       <c r="V210" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="211">
@@ -17938,7 +17938,7 @@
       <c r="T211" t="inlineStr"/>
       <c r="U211" t="inlineStr"/>
       <c r="V211" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="212">
@@ -18018,7 +18018,7 @@
       <c r="T212" t="inlineStr"/>
       <c r="U212" t="inlineStr"/>
       <c r="V212" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="213">
@@ -18098,7 +18098,7 @@
       <c r="T213" t="inlineStr"/>
       <c r="U213" t="inlineStr"/>
       <c r="V213" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="214">
@@ -18178,7 +18178,7 @@
       <c r="T214" t="inlineStr"/>
       <c r="U214" t="inlineStr"/>
       <c r="V214" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="215">
@@ -18258,7 +18258,7 @@
       <c r="T215" t="inlineStr"/>
       <c r="U215" t="inlineStr"/>
       <c r="V215" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="216">
@@ -18338,7 +18338,7 @@
       <c r="T216" t="inlineStr"/>
       <c r="U216" t="inlineStr"/>
       <c r="V216" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="217">
@@ -18418,7 +18418,7 @@
       <c r="T217" t="inlineStr"/>
       <c r="U217" t="inlineStr"/>
       <c r="V217" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="218">
@@ -18498,7 +18498,7 @@
       <c r="T218" t="inlineStr"/>
       <c r="U218" t="inlineStr"/>
       <c r="V218" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="219">
@@ -18578,7 +18578,7 @@
       <c r="T219" t="inlineStr"/>
       <c r="U219" t="inlineStr"/>
       <c r="V219" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="220">
@@ -18658,7 +18658,7 @@
       <c r="T220" t="inlineStr"/>
       <c r="U220" t="inlineStr"/>
       <c r="V220" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="221">
@@ -18738,7 +18738,7 @@
       <c r="T221" t="inlineStr"/>
       <c r="U221" t="inlineStr"/>
       <c r="V221" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="222">
@@ -18818,7 +18818,7 @@
       <c r="T222" t="inlineStr"/>
       <c r="U222" t="inlineStr"/>
       <c r="V222" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="223">
@@ -18898,7 +18898,7 @@
       <c r="T223" t="inlineStr"/>
       <c r="U223" t="inlineStr"/>
       <c r="V223" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="224">
@@ -18976,7 +18976,7 @@
       <c r="T224" t="inlineStr"/>
       <c r="U224" t="inlineStr"/>
       <c r="V224" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="225">
@@ -19054,7 +19054,7 @@
       <c r="T225" t="inlineStr"/>
       <c r="U225" t="inlineStr"/>
       <c r="V225" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="226">
@@ -19132,7 +19132,7 @@
       <c r="T226" t="inlineStr"/>
       <c r="U226" t="inlineStr"/>
       <c r="V226" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="227">
@@ -19206,7 +19206,7 @@
       <c r="T227" t="inlineStr"/>
       <c r="U227" t="inlineStr"/>
       <c r="V227" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="228">
@@ -19284,7 +19284,7 @@
       <c r="T228" t="inlineStr"/>
       <c r="U228" t="inlineStr"/>
       <c r="V228" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="229">
@@ -19362,7 +19362,7 @@
       <c r="T229" t="inlineStr"/>
       <c r="U229" t="inlineStr"/>
       <c r="V229" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="230">
@@ -19440,7 +19440,7 @@
       <c r="T230" t="inlineStr"/>
       <c r="U230" t="inlineStr"/>
       <c r="V230" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="231">
@@ -19514,7 +19514,7 @@
       <c r="T231" t="inlineStr"/>
       <c r="U231" t="inlineStr"/>
       <c r="V231" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="232">
@@ -19588,7 +19588,7 @@
       <c r="T232" t="inlineStr"/>
       <c r="U232" t="inlineStr"/>
       <c r="V232" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="233">
@@ -19666,7 +19666,7 @@
       <c r="T233" t="inlineStr"/>
       <c r="U233" t="inlineStr"/>
       <c r="V233" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="234">
@@ -19740,7 +19740,7 @@
       <c r="T234" t="inlineStr"/>
       <c r="U234" t="inlineStr"/>
       <c r="V234" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="235">
@@ -19824,7 +19824,7 @@
         <v>28685037</v>
       </c>
       <c r="V235" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="236">
@@ -19908,7 +19908,7 @@
         <v>3473642</v>
       </c>
       <c r="V236" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="237">
@@ -19992,7 +19992,7 @@
         <v>2060300</v>
       </c>
       <c r="V237" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="238">
@@ -20076,7 +20076,7 @@
         <v>2845450</v>
       </c>
       <c r="V238" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="239">
@@ -20160,7 +20160,7 @@
         <v>1415500</v>
       </c>
       <c r="V239" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="240">
@@ -20244,7 +20244,7 @@
         <v>1604095</v>
       </c>
       <c r="V240" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="241">
@@ -20328,7 +20328,7 @@
         <v>1217000</v>
       </c>
       <c r="V241" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="242">
@@ -20412,7 +20412,7 @@
         <v>2510250</v>
       </c>
       <c r="V242" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="243">
@@ -20496,7 +20496,7 @@
         <v>1898900</v>
       </c>
       <c r="V243" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="244">
@@ -20580,7 +20580,7 @@
         <v>460200</v>
       </c>
       <c r="V244" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="245">
@@ -20664,7 +20664,7 @@
         <v>459600</v>
       </c>
       <c r="V245" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="246">
@@ -20748,7 +20748,7 @@
         <v>542466</v>
       </c>
       <c r="V246" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="247">
@@ -20832,7 +20832,7 @@
         <v>520672</v>
       </c>
       <c r="V247" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="248">
@@ -20916,7 +20916,7 @@
         <v>390600</v>
       </c>
       <c r="V248" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="249">
@@ -21000,7 +21000,7 @@
         <v>316800</v>
       </c>
       <c r="V249" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="250">
@@ -21084,7 +21084,7 @@
         <v>125400</v>
       </c>
       <c r="V250" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="251">
@@ -21168,7 +21168,7 @@
         <v>174500</v>
       </c>
       <c r="V251" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="252">
@@ -21252,7 +21252,7 @@
         <v>215100</v>
       </c>
       <c r="V252" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="253">
@@ -21336,7 +21336,7 @@
         <v>208500</v>
       </c>
       <c r="V253" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="254">
@@ -21420,7 +21420,7 @@
         <v>130500</v>
       </c>
       <c r="V254" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="255">
@@ -21504,7 +21504,7 @@
         <v>296700</v>
       </c>
       <c r="V255" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="256">
@@ -21588,7 +21588,7 @@
         <v>73099.99999999999</v>
       </c>
       <c r="V256" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="257">
@@ -21672,7 +21672,7 @@
         <v>469600</v>
       </c>
       <c r="V257" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="258">
@@ -21756,7 +21756,7 @@
         <v>243200</v>
       </c>
       <c r="V258" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="259">
@@ -21840,7 +21840,7 @@
         <v>200500</v>
       </c>
       <c r="V259" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="260">
@@ -21924,7 +21924,7 @@
         <v>219900</v>
       </c>
       <c r="V260" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="261">
@@ -22008,7 +22008,7 @@
         <v>99038</v>
       </c>
       <c r="V261" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="262">
@@ -22092,7 +22092,7 @@
         <v>609418</v>
       </c>
       <c r="V262" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="263">
@@ -22176,7 +22176,7 @@
         <v>244100</v>
       </c>
       <c r="V263" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="264">
@@ -22260,7 +22260,7 @@
         <v>189100</v>
       </c>
       <c r="V264" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="265">
@@ -22344,7 +22344,7 @@
         <v>252500</v>
       </c>
       <c r="V265" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="266">
@@ -22428,7 +22428,7 @@
         <v>445448</v>
       </c>
       <c r="V266" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="267">
@@ -22512,7 +22512,7 @@
         <v>427050</v>
       </c>
       <c r="V267" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="268">
@@ -22596,7 +22596,7 @@
         <v>718750</v>
       </c>
       <c r="V268" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="269">
@@ -22680,7 +22680,7 @@
         <v>364050</v>
       </c>
       <c r="V269" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="270">
@@ -22764,7 +22764,7 @@
         <v>83850</v>
       </c>
       <c r="V270" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="271">
@@ -22848,7 +22848,7 @@
         <v>205350</v>
       </c>
       <c r="V271" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="272">
@@ -22932,7 +22932,7 @@
         <v>126600</v>
       </c>
       <c r="V272" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="273">
@@ -23016,7 +23016,7 @@
         <v>299394.9999999999</v>
       </c>
       <c r="V273" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="274">
@@ -23100,7 +23100,7 @@
         <v>103000</v>
       </c>
       <c r="V274" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="275">
@@ -23184,7 +23184,7 @@
         <v>241800</v>
       </c>
       <c r="V275" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="276">
@@ -23268,7 +23268,7 @@
         <v>430700</v>
       </c>
       <c r="V276" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="277">
@@ -23352,7 +23352,7 @@
         <v>110000</v>
       </c>
       <c r="V277" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="278">
@@ -23436,7 +23436,7 @@
         <v>103100</v>
       </c>
       <c r="V278" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="279">
@@ -23520,7 +23520,7 @@
         <v>173400</v>
       </c>
       <c r="V279" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="280">
@@ -23604,7 +23604,7 @@
         <v>288300</v>
       </c>
       <c r="V280" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="281">
@@ -23688,7 +23688,7 @@
         <v>608200</v>
       </c>
       <c r="V281" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="282">
@@ -23772,7 +23772,7 @@
         <v>249400</v>
       </c>
       <c r="V282" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="283">
@@ -23856,7 +23856,7 @@
         <v>89000</v>
       </c>
       <c r="V283" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="284">
@@ -23940,7 +23940,7 @@
         <v>124800</v>
       </c>
       <c r="V284" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="285">
@@ -24024,7 +24024,7 @@
         <v>434200</v>
       </c>
       <c r="V285" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="286">
@@ -24108,7 +24108,7 @@
         <v>38799.99999999999</v>
       </c>
       <c r="V286" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="287">
@@ -24192,7 +24192,7 @@
         <v>84899.99999999999</v>
       </c>
       <c r="V287" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="288">
@@ -24276,7 +24276,7 @@
         <v>82000</v>
       </c>
       <c r="V288" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="289">
@@ -24360,7 +24360,7 @@
         <v>216100</v>
       </c>
       <c r="V289" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="290">
@@ -24444,7 +24444,7 @@
         <v>228700</v>
       </c>
       <c r="V290" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="291">
@@ -24528,7 +24528,7 @@
         <v>179350</v>
       </c>
       <c r="V291" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="292">
@@ -24612,7 +24612,7 @@
         <v>101200</v>
       </c>
       <c r="V292" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="293">
@@ -24696,7 +24696,7 @@
         <v>50199.99999999999</v>
       </c>
       <c r="V293" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="294">
@@ -24780,7 +24780,7 @@
         <v>245700</v>
       </c>
       <c r="V294" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="295">
@@ -24864,7 +24864,7 @@
         <v>162400</v>
       </c>
       <c r="V295" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="296">
@@ -24948,7 +24948,7 @@
         <v>294300</v>
       </c>
       <c r="V296" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="297">
@@ -25032,7 +25032,7 @@
         <v>166700</v>
       </c>
       <c r="V297" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="298">
@@ -25116,7 +25116,7 @@
         <v>536450</v>
       </c>
       <c r="V298" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="299">
@@ -25200,7 +25200,7 @@
         <v>442550</v>
       </c>
       <c r="V299" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="300">
@@ -25284,7 +25284,7 @@
         <v>229000</v>
       </c>
       <c r="V300" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="301">
@@ -25368,7 +25368,7 @@
         <v>212750</v>
       </c>
       <c r="V301" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="302">
@@ -25452,7 +25452,7 @@
         <v>165900</v>
       </c>
       <c r="V302" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="303">
@@ -25536,7 +25536,7 @@
         <v>352550</v>
       </c>
       <c r="V303" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="304">
@@ -25620,7 +25620,7 @@
         <v>255450</v>
       </c>
       <c r="V304" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="305">
@@ -25704,7 +25704,7 @@
         <v>94400</v>
       </c>
       <c r="V305" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="306">
@@ -25788,7 +25788,7 @@
         <v>357949.9999999999</v>
       </c>
       <c r="V306" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="307">
@@ -25872,7 +25872,7 @@
         <v>158400</v>
       </c>
       <c r="V307" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="308">
@@ -25956,7 +25956,7 @@
         <v>301500</v>
       </c>
       <c r="V308" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="309">
@@ -26040,7 +26040,7 @@
         <v>251029450.7974779</v>
       </c>
       <c r="V309" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="310">
@@ -26124,7 +26124,7 @@
         <v>20096914</v>
       </c>
       <c r="V310" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="311">
@@ -26208,7 +26208,7 @@
         <v>27111791.00000001</v>
       </c>
       <c r="V311" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="312">
@@ -26292,7 +26292,7 @@
         <v>41315488.00000001</v>
       </c>
       <c r="V312" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="313">
@@ -26376,7 +26376,7 @@
         <v>25348506</v>
       </c>
       <c r="V313" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="314">
@@ -26460,7 +26460,7 @@
         <v>6772465.66666667</v>
       </c>
       <c r="V314" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="315">
@@ -26544,7 +26544,7 @@
         <v>8124194</v>
       </c>
       <c r="V315" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="316">
@@ -26628,7 +26628,7 @@
         <v>32149436.00000004</v>
       </c>
       <c r="V316" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="317">
@@ -26712,7 +26712,7 @@
         <v>46938798.00000004</v>
       </c>
       <c r="V317" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="318">
@@ -26796,7 +26796,7 @@
         <v>18562557</v>
       </c>
       <c r="V318" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="319">
@@ -26880,7 +26880,7 @@
         <v>3549675</v>
       </c>
       <c r="V319" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="320">
@@ -26964,7 +26964,7 @@
         <v>1719183</v>
       </c>
       <c r="V320" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="321">
@@ -27048,7 +27048,7 @@
         <v>1986164</v>
       </c>
       <c r="V321" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="322">
@@ -27132,7 +27132,7 @@
         <v>3580324</v>
       </c>
       <c r="V322" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="323">
@@ -27216,7 +27216,7 @@
         <v>634459</v>
       </c>
       <c r="V323" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="324">
@@ -27300,7 +27300,7 @@
         <v>1998677</v>
       </c>
       <c r="V324" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="325">
@@ -27384,7 +27384,7 @@
         <v>834630</v>
       </c>
       <c r="V325" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="326">
@@ -27468,7 +27468,7 @@
         <v>2866947</v>
       </c>
       <c r="V326" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="327">
@@ -27552,7 +27552,7 @@
         <v>2706522.66666667</v>
       </c>
       <c r="V327" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="328">
@@ -27636,7 +27636,7 @@
         <v>4295859</v>
       </c>
       <c r="V328" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="329">
@@ -27720,7 +27720,7 @@
         <v>2586765</v>
       </c>
       <c r="V329" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="330">
@@ -27804,7 +27804,7 @@
         <v>6110049</v>
       </c>
       <c r="V330" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="331">
@@ -27888,7 +27888,7 @@
         <v>1162726.66666667</v>
       </c>
       <c r="V331" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="332">
@@ -27972,7 +27972,7 @@
         <v>2612786.66666667</v>
       </c>
       <c r="V332" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="333">
@@ -28056,7 +28056,7 @@
         <v>1538394</v>
       </c>
       <c r="V333" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="334">
@@ -28140,7 +28140,7 @@
         <v>2985199</v>
       </c>
       <c r="V334" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="335">
@@ -28224,7 +28224,7 @@
         <v>1353858</v>
       </c>
       <c r="V335" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="336">
@@ -28308,7 +28308,7 @@
         <v>4746094</v>
       </c>
       <c r="V336" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="337">
@@ -28392,7 +28392,7 @@
         <v>2013210</v>
       </c>
       <c r="V337" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="338">
@@ -28476,7 +28476,7 @@
         <v>1146617</v>
       </c>
       <c r="V338" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="339">
@@ -28560,7 +28560,7 @@
         <v>815109</v>
       </c>
       <c r="V339" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="340">
@@ -28644,7 +28644,7 @@
         <v>2674958</v>
       </c>
       <c r="V340" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="341">
@@ -28728,7 +28728,7 @@
         <v>3091600</v>
       </c>
       <c r="V341" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="342">
@@ -28812,7 +28812,7 @@
         <v>5426632</v>
       </c>
       <c r="V342" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="343">
@@ -28896,7 +28896,7 @@
         <v>3047248</v>
       </c>
       <c r="V343" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="344">
@@ -28980,7 +28980,7 @@
         <v>2309786</v>
       </c>
       <c r="V344" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="345">
@@ -29064,7 +29064,7 @@
         <v>1929990</v>
       </c>
       <c r="V345" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="346">
@@ -29148,7 +29148,7 @@
         <v>3398000</v>
       </c>
       <c r="V346" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="347">
@@ -29232,7 +29232,7 @@
         <v>1478310</v>
       </c>
       <c r="V347" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="348">
@@ -29316,7 +29316,7 @@
         <v>824831</v>
       </c>
       <c r="V348" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="349">
@@ -29400,7 +29400,7 @@
         <v>1984137</v>
       </c>
       <c r="V349" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="350">
@@ -29484,7 +29484,7 @@
         <v>3051499</v>
       </c>
       <c r="V350" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="351">
@@ -29568,7 +29568,7 @@
         <v>667285</v>
       </c>
       <c r="V351" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="352">
@@ -29652,7 +29652,7 @@
         <v>520043.9999999999</v>
       </c>
       <c r="V352" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="353">
@@ -29736,7 +29736,7 @@
         <v>1501674.66666667</v>
       </c>
       <c r="V353" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="354">
@@ -29820,7 +29820,7 @@
         <v>806901</v>
       </c>
       <c r="V354" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="355">
@@ -29904,7 +29904,7 @@
         <v>1773981</v>
       </c>
       <c r="V355" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="356">
@@ -29988,7 +29988,7 @@
         <v>913020</v>
       </c>
       <c r="V356" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="357">
@@ -30072,7 +30072,7 @@
         <v>830662.9999999999</v>
       </c>
       <c r="V357" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="358">
@@ -30156,7 +30156,7 @@
         <v>544314</v>
       </c>
       <c r="V358" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="359">
@@ -30240,7 +30240,7 @@
         <v>2790016.97610529</v>
       </c>
       <c r="V359" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="360">
@@ -30324,7 +30324,7 @@
         <v>1479771.667923761</v>
       </c>
       <c r="V360" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="361">
@@ -30408,7 +30408,7 @@
         <v>931855.0259119481</v>
       </c>
       <c r="V361" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="362">
@@ -30492,7 +30492,7 @@
         <v>635105.306573794</v>
       </c>
       <c r="V362" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="363">
@@ -30576,7 +30576,7 @@
         <v>5813110.029956225</v>
       </c>
       <c r="V363" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="364">
@@ -30660,7 +30660,7 @@
         <v>997840.6666666671</v>
       </c>
       <c r="V364" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="365">
@@ -30744,7 +30744,7 @@
         <v>781632.0000000001</v>
       </c>
       <c r="V365" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="366">
@@ -30828,7 +30828,7 @@
         <v>1451906.409951304</v>
       </c>
       <c r="V366" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="367">
@@ -30912,7 +30912,7 @@
         <v>9831388.39436632</v>
       </c>
       <c r="V367" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="368">
@@ -30996,7 +30996,7 @@
         <v>1187512.039694373</v>
       </c>
       <c r="V368" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="369">
@@ -31080,7 +31080,7 @@
         <v>1227840.149516979</v>
       </c>
       <c r="V369" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="370">
@@ -31164,7 +31164,7 @@
         <v>4097391.66666667</v>
       </c>
       <c r="V370" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="371">
@@ -31248,7 +31248,7 @@
         <v>4762819</v>
       </c>
       <c r="V371" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="372">
@@ -31332,7 +31332,7 @@
         <v>2908036</v>
       </c>
       <c r="V372" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="373">
@@ -31416,7 +31416,7 @@
         <v>13463074.6666667</v>
       </c>
       <c r="V373" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="374">
@@ -31500,7 +31500,7 @@
         <v>1978815</v>
       </c>
       <c r="V374" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="375">
@@ -31584,7 +31584,7 @@
         <v>1850672.01527073</v>
       </c>
       <c r="V375" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="376">
@@ -31668,7 +31668,7 @@
         <v>2651540.28467039</v>
       </c>
       <c r="V376" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="377">
@@ -31752,7 +31752,7 @@
         <v>15649268.8</v>
       </c>
       <c r="V377" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="378">
@@ -31836,7 +31836,7 @@
         <v>4925387.98064836</v>
       </c>
       <c r="V378" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="379">
@@ -31920,7 +31920,7 @@
         <v>2451666.97649002</v>
       </c>
       <c r="V379" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="380">
@@ -32004,7 +32004,7 @@
         <v>13834504.096363</v>
       </c>
       <c r="V380" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="381">
@@ -32088,7 +32088,7 @@
         <v>2235140.017892329</v>
       </c>
       <c r="V381" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="382">
@@ -32172,7 +32172,7 @@
         <v>3340617.828665212</v>
       </c>
       <c r="V382" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="383">
@@ -32252,7 +32252,7 @@
       <c r="T383" t="inlineStr"/>
       <c r="U383" t="inlineStr"/>
       <c r="V383" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="384">
@@ -32332,7 +32332,7 @@
       <c r="T384" t="inlineStr"/>
       <c r="U384" t="inlineStr"/>
       <c r="V384" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="385">
@@ -32412,7 +32412,7 @@
       <c r="T385" t="inlineStr"/>
       <c r="U385" t="inlineStr"/>
       <c r="V385" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="386">
@@ -32492,7 +32492,7 @@
       <c r="T386" t="inlineStr"/>
       <c r="U386" t="inlineStr"/>
       <c r="V386" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="387">
@@ -32572,7 +32572,7 @@
       <c r="T387" t="inlineStr"/>
       <c r="U387" t="inlineStr"/>
       <c r="V387" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="388">
@@ -32652,7 +32652,7 @@
       <c r="T388" t="inlineStr"/>
       <c r="U388" t="inlineStr"/>
       <c r="V388" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="389">
@@ -32732,7 +32732,7 @@
       <c r="T389" t="inlineStr"/>
       <c r="U389" t="inlineStr"/>
       <c r="V389" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="390">
@@ -32812,7 +32812,7 @@
       <c r="T390" t="inlineStr"/>
       <c r="U390" t="inlineStr"/>
       <c r="V390" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="391">
@@ -32892,7 +32892,7 @@
       <c r="T391" t="inlineStr"/>
       <c r="U391" t="inlineStr"/>
       <c r="V391" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="392">
@@ -32972,7 +32972,7 @@
       <c r="T392" t="inlineStr"/>
       <c r="U392" t="inlineStr"/>
       <c r="V392" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="393">
@@ -33052,7 +33052,7 @@
       <c r="T393" t="inlineStr"/>
       <c r="U393" t="inlineStr"/>
       <c r="V393" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="394">
@@ -33132,7 +33132,7 @@
       <c r="T394" t="inlineStr"/>
       <c r="U394" t="inlineStr"/>
       <c r="V394" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="395">
@@ -33212,7 +33212,7 @@
       <c r="T395" t="inlineStr"/>
       <c r="U395" t="inlineStr"/>
       <c r="V395" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="396">
@@ -33292,7 +33292,7 @@
       <c r="T396" t="inlineStr"/>
       <c r="U396" t="inlineStr"/>
       <c r="V396" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="397">
@@ -33372,7 +33372,7 @@
       <c r="T397" t="inlineStr"/>
       <c r="U397" t="inlineStr"/>
       <c r="V397" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="398">
@@ -33452,7 +33452,7 @@
       <c r="T398" t="inlineStr"/>
       <c r="U398" t="inlineStr"/>
       <c r="V398" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="399">
@@ -33532,7 +33532,7 @@
       <c r="T399" t="inlineStr"/>
       <c r="U399" t="inlineStr"/>
       <c r="V399" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="400">
@@ -33612,7 +33612,7 @@
       <c r="T400" t="inlineStr"/>
       <c r="U400" t="inlineStr"/>
       <c r="V400" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="401">
@@ -33692,7 +33692,7 @@
       <c r="T401" t="inlineStr"/>
       <c r="U401" t="inlineStr"/>
       <c r="V401" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="402">
@@ -33772,7 +33772,7 @@
       <c r="T402" t="inlineStr"/>
       <c r="U402" t="inlineStr"/>
       <c r="V402" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="403">
@@ -33852,7 +33852,7 @@
       <c r="T403" t="inlineStr"/>
       <c r="U403" t="inlineStr"/>
       <c r="V403" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="404">
@@ -33932,7 +33932,7 @@
       <c r="T404" t="inlineStr"/>
       <c r="U404" t="inlineStr"/>
       <c r="V404" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="405">
@@ -34012,7 +34012,7 @@
       <c r="T405" t="inlineStr"/>
       <c r="U405" t="inlineStr"/>
       <c r="V405" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="406">
@@ -34092,7 +34092,7 @@
       <c r="T406" t="inlineStr"/>
       <c r="U406" t="inlineStr"/>
       <c r="V406" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="407">
@@ -34172,7 +34172,7 @@
       <c r="T407" t="inlineStr"/>
       <c r="U407" t="inlineStr"/>
       <c r="V407" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="408">
@@ -34252,7 +34252,7 @@
       <c r="T408" t="inlineStr"/>
       <c r="U408" t="inlineStr"/>
       <c r="V408" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="409">
@@ -34332,7 +34332,7 @@
       <c r="T409" t="inlineStr"/>
       <c r="U409" t="inlineStr"/>
       <c r="V409" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="410">
@@ -34412,7 +34412,7 @@
       <c r="T410" t="inlineStr"/>
       <c r="U410" t="inlineStr"/>
       <c r="V410" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="411">
@@ -34492,7 +34492,7 @@
       <c r="T411" t="inlineStr"/>
       <c r="U411" t="inlineStr"/>
       <c r="V411" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="412">
@@ -34572,7 +34572,7 @@
       <c r="T412" t="inlineStr"/>
       <c r="U412" t="inlineStr"/>
       <c r="V412" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="413">
@@ -34652,7 +34652,7 @@
       <c r="T413" t="inlineStr"/>
       <c r="U413" t="inlineStr"/>
       <c r="V413" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="414">
@@ -34732,7 +34732,7 @@
       <c r="T414" t="inlineStr"/>
       <c r="U414" t="inlineStr"/>
       <c r="V414" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="415">
@@ -34812,7 +34812,7 @@
       <c r="T415" t="inlineStr"/>
       <c r="U415" t="inlineStr"/>
       <c r="V415" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="416">
@@ -34892,7 +34892,7 @@
       <c r="T416" t="inlineStr"/>
       <c r="U416" t="inlineStr"/>
       <c r="V416" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="417">
@@ -34972,7 +34972,7 @@
       <c r="T417" t="inlineStr"/>
       <c r="U417" t="inlineStr"/>
       <c r="V417" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="418">
@@ -35052,7 +35052,7 @@
       <c r="T418" t="inlineStr"/>
       <c r="U418" t="inlineStr"/>
       <c r="V418" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="419">
@@ -35132,7 +35132,7 @@
       <c r="T419" t="inlineStr"/>
       <c r="U419" t="inlineStr"/>
       <c r="V419" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="420">
@@ -35212,7 +35212,7 @@
       <c r="T420" t="inlineStr"/>
       <c r="U420" t="inlineStr"/>
       <c r="V420" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="421">
@@ -35292,7 +35292,7 @@
       <c r="T421" t="inlineStr"/>
       <c r="U421" t="inlineStr"/>
       <c r="V421" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="422">
@@ -35372,7 +35372,7 @@
       <c r="T422" t="inlineStr"/>
       <c r="U422" t="inlineStr"/>
       <c r="V422" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="423">
@@ -35452,7 +35452,7 @@
       <c r="T423" t="inlineStr"/>
       <c r="U423" t="inlineStr"/>
       <c r="V423" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="424">
@@ -35532,7 +35532,7 @@
       <c r="T424" t="inlineStr"/>
       <c r="U424" t="inlineStr"/>
       <c r="V424" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="425">
@@ -35612,7 +35612,7 @@
       <c r="T425" t="inlineStr"/>
       <c r="U425" t="inlineStr"/>
       <c r="V425" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="426">
@@ -35692,7 +35692,7 @@
       <c r="T426" t="inlineStr"/>
       <c r="U426" t="inlineStr"/>
       <c r="V426" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="427">
@@ -35772,7 +35772,7 @@
       <c r="T427" t="inlineStr"/>
       <c r="U427" t="inlineStr"/>
       <c r="V427" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="428">
@@ -35852,7 +35852,7 @@
       <c r="T428" t="inlineStr"/>
       <c r="U428" t="inlineStr"/>
       <c r="V428" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="429">
@@ -35932,7 +35932,7 @@
       <c r="T429" t="inlineStr"/>
       <c r="U429" t="inlineStr"/>
       <c r="V429" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="430">
@@ -36012,7 +36012,7 @@
       <c r="T430" t="inlineStr"/>
       <c r="U430" t="inlineStr"/>
       <c r="V430" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="431">
@@ -36092,7 +36092,7 @@
       <c r="T431" t="inlineStr"/>
       <c r="U431" t="inlineStr"/>
       <c r="V431" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="432">
@@ -36172,7 +36172,7 @@
       <c r="T432" t="inlineStr"/>
       <c r="U432" t="inlineStr"/>
       <c r="V432" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="433">
@@ -36252,7 +36252,7 @@
       <c r="T433" t="inlineStr"/>
       <c r="U433" t="inlineStr"/>
       <c r="V433" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="434">
@@ -36332,7 +36332,7 @@
       <c r="T434" t="inlineStr"/>
       <c r="U434" t="inlineStr"/>
       <c r="V434" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="435">
@@ -36412,7 +36412,7 @@
       <c r="T435" t="inlineStr"/>
       <c r="U435" t="inlineStr"/>
       <c r="V435" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="436">
@@ -36492,7 +36492,7 @@
       <c r="T436" t="inlineStr"/>
       <c r="U436" t="inlineStr"/>
       <c r="V436" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="437">
@@ -36572,7 +36572,7 @@
       <c r="T437" t="inlineStr"/>
       <c r="U437" t="inlineStr"/>
       <c r="V437" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="438">
@@ -36652,7 +36652,7 @@
       <c r="T438" t="inlineStr"/>
       <c r="U438" t="inlineStr"/>
       <c r="V438" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="439">
@@ -36732,7 +36732,7 @@
       <c r="T439" t="inlineStr"/>
       <c r="U439" t="inlineStr"/>
       <c r="V439" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="440">
@@ -36812,7 +36812,7 @@
       <c r="T440" t="inlineStr"/>
       <c r="U440" t="inlineStr"/>
       <c r="V440" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="441">
@@ -36892,7 +36892,7 @@
       <c r="T441" t="inlineStr"/>
       <c r="U441" t="inlineStr"/>
       <c r="V441" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="442">
@@ -36972,7 +36972,7 @@
       <c r="T442" t="inlineStr"/>
       <c r="U442" t="inlineStr"/>
       <c r="V442" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="443">
@@ -37052,7 +37052,7 @@
       <c r="T443" t="inlineStr"/>
       <c r="U443" t="inlineStr"/>
       <c r="V443" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="444">
@@ -37132,7 +37132,7 @@
       <c r="T444" t="inlineStr"/>
       <c r="U444" t="inlineStr"/>
       <c r="V444" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="445">
@@ -37212,7 +37212,7 @@
       <c r="T445" t="inlineStr"/>
       <c r="U445" t="inlineStr"/>
       <c r="V445" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="446">
@@ -37292,7 +37292,7 @@
       <c r="T446" t="inlineStr"/>
       <c r="U446" t="inlineStr"/>
       <c r="V446" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="447">
@@ -37372,7 +37372,7 @@
       <c r="T447" t="inlineStr"/>
       <c r="U447" t="inlineStr"/>
       <c r="V447" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="448">
@@ -37452,7 +37452,7 @@
       <c r="T448" t="inlineStr"/>
       <c r="U448" t="inlineStr"/>
       <c r="V448" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="449">
@@ -37532,7 +37532,7 @@
       <c r="T449" t="inlineStr"/>
       <c r="U449" t="inlineStr"/>
       <c r="V449" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="450">
@@ -37612,7 +37612,7 @@
       <c r="T450" t="inlineStr"/>
       <c r="U450" t="inlineStr"/>
       <c r="V450" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="451">
@@ -37692,7 +37692,7 @@
       <c r="T451" t="inlineStr"/>
       <c r="U451" t="inlineStr"/>
       <c r="V451" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="452">
@@ -37772,7 +37772,7 @@
       <c r="T452" t="inlineStr"/>
       <c r="U452" t="inlineStr"/>
       <c r="V452" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="453">
@@ -37852,7 +37852,7 @@
       <c r="T453" t="inlineStr"/>
       <c r="U453" t="inlineStr"/>
       <c r="V453" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="454">
@@ -37932,7 +37932,7 @@
       <c r="T454" t="inlineStr"/>
       <c r="U454" t="inlineStr"/>
       <c r="V454" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="455">
@@ -38012,7 +38012,7 @@
       <c r="T455" t="inlineStr"/>
       <c r="U455" t="inlineStr"/>
       <c r="V455" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="456">
@@ -38092,7 +38092,7 @@
       <c r="T456" t="inlineStr"/>
       <c r="U456" t="inlineStr"/>
       <c r="V456" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="457">
@@ -38170,7 +38170,7 @@
       <c r="T457" t="inlineStr"/>
       <c r="U457" t="inlineStr"/>
       <c r="V457" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="458">
@@ -38248,7 +38248,7 @@
       <c r="T458" t="inlineStr"/>
       <c r="U458" t="inlineStr"/>
       <c r="V458" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="459">
@@ -38326,7 +38326,7 @@
       <c r="T459" t="inlineStr"/>
       <c r="U459" t="inlineStr"/>
       <c r="V459" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="460">
@@ -38400,7 +38400,7 @@
       <c r="T460" t="inlineStr"/>
       <c r="U460" t="inlineStr"/>
       <c r="V460" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="461">
@@ -38474,7 +38474,7 @@
       <c r="T461" t="inlineStr"/>
       <c r="U461" t="inlineStr"/>
       <c r="V461" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="462">
@@ -38548,7 +38548,7 @@
       <c r="T462" t="inlineStr"/>
       <c r="U462" t="inlineStr"/>
       <c r="V462" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="463">
@@ -38626,7 +38626,7 @@
       <c r="T463" t="inlineStr"/>
       <c r="U463" t="inlineStr"/>
       <c r="V463" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="464">
@@ -38700,7 +38700,7 @@
       <c r="T464" t="inlineStr"/>
       <c r="U464" t="inlineStr"/>
       <c r="V464" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="465">
@@ -38778,7 +38778,7 @@
       <c r="T465" t="inlineStr"/>
       <c r="U465" t="inlineStr"/>
       <c r="V465" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="466">
@@ -38856,7 +38856,7 @@
       <c r="T466" t="inlineStr"/>
       <c r="U466" t="inlineStr"/>
       <c r="V466" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="467">
@@ -38934,7 +38934,7 @@
       <c r="T467" t="inlineStr"/>
       <c r="U467" t="inlineStr"/>
       <c r="V467" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="468">
@@ -39012,7 +39012,7 @@
       <c r="T468" t="inlineStr"/>
       <c r="U468" t="inlineStr"/>
       <c r="V468" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="469">
@@ -39086,7 +39086,7 @@
       <c r="T469" t="inlineStr"/>
       <c r="U469" t="inlineStr"/>
       <c r="V469" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="470">
@@ -39164,7 +39164,7 @@
       <c r="T470" t="inlineStr"/>
       <c r="U470" t="inlineStr"/>
       <c r="V470" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="471">
@@ -39238,7 +39238,7 @@
       <c r="T471" t="inlineStr"/>
       <c r="U471" t="inlineStr"/>
       <c r="V471" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="472">
@@ -39312,7 +39312,7 @@
       <c r="T472" t="inlineStr"/>
       <c r="U472" t="inlineStr"/>
       <c r="V472" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
     <row r="473">
@@ -39386,7 +39386,7 @@
       <c r="T473" t="inlineStr"/>
       <c r="U473" t="inlineStr"/>
       <c r="V473" s="2" t="n">
-        <v>45545.65481252962</v>
+        <v>45545.76909418291</v>
       </c>
     </row>
   </sheetData>
